--- a/biology/Zoologie/Érione_d'Isabella/Érione_d'Isabella.xlsx
+++ b/biology/Zoologie/Érione_d'Isabella/Érione_d'Isabella.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89rione_d%27Isabella</t>
+          <t>Érione_d'Isabella</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eriocnemis isabellae
 L'Érione d'Isabella, Érione d'Isabelle ou Érione à gorge bleue (Eriocnemis isabellae) est une espèce de colibris de la sous-famille des Trochilinae endémique de Colombie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89rione_d%27Isabella</t>
+          <t>Érione_d'Isabella</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce Eriocnemis isabellae a été décrite en 2007 par les ornithologues colombiens Alexander Cortés-Diago (d), 
-Luis Alfonso Ortega (d) et Luis Mazariegos-Hurtado (d), et l'ornithologue allemand André Weller (d)[1].
+Luis Alfonso Ortega (d) et Luis Mazariegos-Hurtado (d), et l'ornithologue allemand André Weller (d).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89rione_d%27Isabella</t>
+          <t>Érione_d'Isabella</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Érione d'Isabella est présente seulement dans une zone restreinte de l'Ouest de la Colombie.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89rione_d%27Isabella</t>
+          <t>Érione_d'Isabella</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, isabellae, lui a été donnée en l'honneur d’Isabella Cortes, fille d’Alexander Cortés-Diago, mais également un nom qui s'accorde bien avec la beauté de cette espèce[1]. Le nom vernaculaire français (« Érione d'Isabella ») reprend cette référence.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, isabellae, lui a été donnée en l'honneur d’Isabella Cortes, fille d’Alexander Cortés-Diago, mais également un nom qui s'accorde bien avec la beauté de cette espèce. Le nom vernaculaire français (« Érione d'Isabella ») reprend cette référence.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89rione_d%27Isabella</t>
+          <t>Érione_d'Isabella</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Alexander Cortés-Diago, Luis Alfonso Ortega, Luis Mazariegos-Hurtado et André-A. Weller, « A new species of Eriocnemis (Trochilidae) from southwest Colombia », Ornitologia Neotropical, vol. 18,‎ 2007, p. 161–170 (ISSN 1075-4377, lire en ligne)</t>
         </is>
